--- a/test/Resources/history/history.xlsx
+++ b/test/Resources/history/history.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NAME</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>4/5/2023 10:49:00 AM</t>
+  </si>
+  <si>
+    <t>4/5/2023 10:57:46 AM</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -455,6 +458,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/test/Resources/history/history.xlsx
+++ b/test/Resources/history/history.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NAME</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>4/5/2023 10:57:46 AM</t>
+  </si>
+  <si>
+    <t>4/8/2023 6:54:15 PM</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -469,6 +472,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
